--- a/CalMultiRDMA/search.xlsx
+++ b/CalMultiRDMA/search.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minxinhao/c++/CalPlot/CalMultiRDMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21A7AC7-908E-E741-9276-076037EAFE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986D7556-83E4-984E-A56D-F7BC1777411D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9280" yWindow="2800" windowWidth="27440" windowHeight="16440" xr2:uid="{5BC722B9-B71A-624A-A6A2-4D9620ED927E}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -438,61 +438,61 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>96609.83</v>
+        <v>60767.659999999902</v>
       </c>
       <c r="C2">
-        <v>96207.9</v>
+        <v>51517.29</v>
       </c>
       <c r="D2">
-        <v>96661.09</v>
+        <v>88712.24</v>
       </c>
       <c r="E2">
-        <v>98316.299999999901</v>
+        <v>47757.14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3">
-        <v>10763.06</v>
+        <v>51181.37</v>
       </c>
       <c r="C3">
-        <v>131429.07999999999</v>
+        <v>43070.45</v>
       </c>
       <c r="D3">
-        <v>135104.34</v>
+        <v>56431.7599999999</v>
       </c>
       <c r="E3">
-        <v>132034.97999999899</v>
+        <v>36867.31</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4">
-        <v>15035.03</v>
+        <v>79342.960000000006</v>
       </c>
       <c r="C4">
-        <v>52529.599999999999</v>
+        <v>110981.07</v>
       </c>
       <c r="D4">
-        <v>145397.96</v>
+        <v>52103.2599999999</v>
       </c>
       <c r="E4">
-        <v>152329.28</v>
+        <v>52336.160000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5">
-        <v>16516.84</v>
+        <v>77736.97</v>
       </c>
       <c r="C5">
-        <v>54712.489999999903</v>
+        <v>52587.629999999903</v>
       </c>
       <c r="D5">
-        <v>90498.47</v>
+        <v>93860.129999999903</v>
       </c>
       <c r="E5">
-        <v>107443.569999999</v>
+        <v>58020.859999999899</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -556,124 +556,125 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>60767.659999999902</v>
+        <v>5505.83</v>
       </c>
       <c r="C10">
-        <v>51517.29</v>
+        <v>5338.4499999999898</v>
       </c>
       <c r="D10">
-        <v>88712.24</v>
+        <v>5600.73</v>
       </c>
       <c r="E10">
-        <v>47757.14</v>
+        <v>4902.3099999999904</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11">
-        <v>51181.37</v>
+        <v>7572.79</v>
       </c>
       <c r="C11">
-        <v>43070.45</v>
+        <v>7467.14</v>
       </c>
       <c r="D11">
-        <v>56431.7599999999</v>
+        <v>6849.07</v>
       </c>
       <c r="E11">
-        <v>36867.31</v>
+        <v>3454.7</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12">
-        <v>79342.960000000006</v>
+        <v>7644.38</v>
       </c>
       <c r="C12">
-        <v>110981.07</v>
+        <v>6619.82</v>
       </c>
       <c r="D12">
-        <v>52103.2599999999</v>
+        <v>6201.95</v>
       </c>
       <c r="E12">
-        <v>52336.160000000003</v>
+        <v>3317.7</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13">
-        <v>77736.97</v>
+        <v>7674.94</v>
       </c>
       <c r="C13">
-        <v>52587.629999999903</v>
+        <v>5412.06</v>
       </c>
       <c r="D13">
-        <v>93860.129999999903</v>
+        <v>4697.66</v>
       </c>
       <c r="E13">
-        <v>58020.859999999899</v>
+        <v>3771.43</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>5505.83</v>
+        <v>96609.83</v>
       </c>
       <c r="C14">
-        <v>5338.4499999999898</v>
+        <v>96207.9</v>
       </c>
       <c r="D14">
-        <v>5600.73</v>
+        <v>96661.09</v>
       </c>
       <c r="E14">
-        <v>4902.3099999999904</v>
+        <v>98316.299999999901</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15">
-        <v>7572.79</v>
+        <v>10763.06</v>
       </c>
       <c r="C15">
-        <v>7467.14</v>
+        <v>131429.07999999999</v>
       </c>
       <c r="D15">
-        <v>6849.07</v>
+        <v>135104.34</v>
       </c>
       <c r="E15">
-        <v>3454.7</v>
+        <v>132034.97999999899</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16">
-        <v>7644.38</v>
+        <v>15035.03</v>
       </c>
       <c r="C16">
-        <v>6619.82</v>
+        <v>52529.599999999999</v>
       </c>
       <c r="D16">
-        <v>6201.95</v>
+        <v>145397.96</v>
       </c>
       <c r="E16">
-        <v>3317.7</v>
+        <v>152329.28</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17">
-        <v>7674.94</v>
+        <v>16516.84</v>
       </c>
       <c r="C17">
-        <v>5412.06</v>
+        <v>54712.489999999903</v>
       </c>
       <c r="D17">
-        <v>4697.66</v>
+        <v>90498.47</v>
       </c>
       <c r="E17">
-        <v>3771.43</v>
+        <v>107443.569999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>